--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/alexanld_ntnu_no/Documents/NTNU/9. Semester/07 - Bloomberg Trading/Bloomberg-Trading-Challenge/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_493E3FDA4D5DF35241C250DFCBB327E9945EE792" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2857D87-FE5C-4027-9084-F2DC791BEC72}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>Stock Name</t>
   </si>
@@ -231,23 +237,77 @@
   </si>
   <si>
     <t>XPEV</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - General</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Internet Content &amp; Information</t>
+  </si>
+  <si>
+    <t>Software - Infrastructure</t>
+  </si>
+  <si>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>Auto Manufacturers</t>
+  </si>
+  <si>
+    <t>Consumer Electronics</t>
+  </si>
+  <si>
+    <t>Internet Retail</t>
+  </si>
+  <si>
+    <t>Financial Data &amp; Stock Exchanges</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Credit Services</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>Ireland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,163 +315,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,192 +337,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -628,316 +365,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1219,294 +679,503 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>